--- a/graph_generation/results_prelim/gpt4/level_6/k_3.xlsx
+++ b/graph_generation/results_prelim/gpt4/level_6/k_3.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>prompt</t>
   </si>
@@ -26,11 +28,14 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t>evaluator_partial_correctness</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the least cost path from node A to node I?
+Example 1: what is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
  A 0 1 0 3 0 0 0 0 0
  B 1 0 2 0 2 0 0 0 0
@@ -42,7 +47,7 @@
  H 0 0 0 0 1 0 2 0 1
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
-Example 2: what is the least cost path from node A to node I?
+Example 2: what is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
  A 0 4 0 2 0 0 0 0 0
  B 4 0 4 0 3 0 0 0 0
@@ -54,7 +59,7 @@
  H 0 0 0 0 0 0 3 0 4
  I 0 0 0 0 0 1 0 4 0
 Solution: A -&gt; B -&gt; E -&gt; F -&gt; I
-Example 3: what is the least cost path from node A to node P?
+Example 3: what is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  B 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -74,34 +79,284 @@
  P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0
 Solution: A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P
  Given these examples, answer the following quesiton.
-what is the least cost path from node A to node P?
+what is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 2 0 0 0 0 1 0 0 3 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0
- H 0 0 0 4 0 0 3 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 3 0 0 0 0 0 0 0 3 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 1 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0
+ A 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 5 0 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 5 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 5 0 0 3 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 5 0 0 0 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 5 0 0 1 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 4 0 0 2 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ L 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 2 0 0 0 0 4 0 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 4 0 5 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node P is: A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P.</t>
-  </si>
-  <si>
-    <t>Correct</t>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>Solution: A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>invalid input</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the least cost path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 4 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 3 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0 2 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0
+Solution: A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
+Example 2: what is the least cost path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 5 0 0 0 0 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 3 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 2 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 2 0 0 0 1 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 3 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 3 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 3
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 5 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 5
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5 0
+Solution: A -&gt; B -&gt; G -&gt; L -&gt; Q -&gt; R -&gt; W -&gt; X -&gt; Y
+Example 3: what is the least cost path from node A to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 4 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 4 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 5 0 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 5 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 5 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 5 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 5
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 3 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 5 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 4
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0
+Solution: A -&gt; F -&gt; K -&gt; O -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X
+ Given these examples, answer the following quesiton.
+what is the least cost path from node A to node W? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 5 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 1 0 0 1 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 3 0 0 0 0 1 0 0 5 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 3 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 3 0 0 0 1 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 3 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 3 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 5 0 0 0 3 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0 5
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5 0 5 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5 0 5
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P -&gt; Q -&gt; V -&gt; W</t>
+  </si>
+  <si>
+    <t>Solution: A -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P -&gt; Q -&gt; V -&gt; W</t>
+  </si>
+  <si>
+    <t>9/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the least cost path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 4 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 3 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0 2 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0
+Solution: A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
+Example 2: what is the least cost path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 5 0 0 0 0 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 3 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 2 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 2 0 0 0 1 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 3 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 3 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 3
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 5 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 5
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5 0
+Solution: A -&gt; B -&gt; G -&gt; L -&gt; Q -&gt; R -&gt; W -&gt; X -&gt; Y
+Example 3: what is the least cost path from node A to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 4 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 4 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 5 0 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 5 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 5 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 5 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 5
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 3 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 5 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 4
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0
+Solution: A -&gt; F -&gt; K -&gt; O -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X
+ Given these examples, answer the following quesiton.
+what is the least cost path from node A to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 3 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 3 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 3 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 3 0 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 3 0 0 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 4 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 2 0 0 0 3 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0 0 0 5
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 4 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0 5
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; K -&gt; L -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; X</t>
+  </si>
+  <si>
+    <t>Solution: A -&gt; B -&gt; G -&gt; L -&gt; P -&gt; U -&gt; V -&gt; W -&gt; X</t>
+  </si>
+  <si>
+    <t>0/9</t>
   </si>
 </sst>
 </file>
@@ -459,13 +714,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,19 +733,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
